--- a/result.xlsx
+++ b/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvir_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvir_\.vscode\OOP_2021\OOP--Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09626C4B-9A06-4A16-9099-AA775A3F80A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2219070F-6AFB-48A7-99CE-7B413C4C4254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{487E91EC-D829-4C9E-B38E-072FDB64A6D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{487E91EC-D829-4C9E-B38E-072FDB64A6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -444,15 +444,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-471884437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-276528927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-23559283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-222061049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-233255224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-29109438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -549,10 +549,10 @@
         <v>197</v>
       </c>
       <c r="F5">
-        <v>-1680648462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-1752675464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -569,10 +569,10 @@
         <v>158</v>
       </c>
       <c r="F6">
-        <v>-1686810154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-1758573476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -589,10 +589,10 @@
         <v>69</v>
       </c>
       <c r="F7">
-        <v>-1914108486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-2119034832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-259998668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-52715074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -629,10 +629,10 @@
         <v>34</v>
       </c>
       <c r="F9">
-        <v>-605016266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-676646212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -649,10 +649,11 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>-565577247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <f>--770513813</f>
+        <v>770513813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -669,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-570267061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-765888575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -689,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-254807481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-57348147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -709,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-118046246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-189932464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -729,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-11209453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-217061223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -749,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-8385618</v>
+        <v>-203745756</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvir_\.vscode\OOP_2021\OOP--Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2219070F-6AFB-48A7-99CE-7B413C4C4254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485ADAEC-1836-418F-AD17-F812467D17F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{487E91EC-D829-4C9E-B38E-072FDB64A6D7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{487E91EC-D829-4C9E-B38E-072FDB64A6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
-  <si>
-    <t>בניין</t>
-  </si>
-  <si>
-    <t>קריאות</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="15">
   <si>
     <t>Total waiting time</t>
   </si>
@@ -79,13 +74,19 @@
   </si>
   <si>
     <t>B5</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Calls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +102,71 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,12 +174,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,323 +568,630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363715B4-9A9E-43A8-AF4F-21A42A268425}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="4">
+        <v>11292</v>
+      </c>
+      <c r="D2" s="5">
+        <v>112.92</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-276528927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5087</v>
+      </c>
+      <c r="D3" s="5">
+        <v>50.87</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>-222061049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3317</v>
+      </c>
+      <c r="D4" s="5">
+        <v>33.17</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-29109438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>11292</v>
-      </c>
-      <c r="D2">
-        <v>112.92</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>-276528927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" s="4">
+        <v>543935.49545599904</v>
+      </c>
+      <c r="D5" s="5">
+        <v>543.93549545599899</v>
+      </c>
+      <c r="E5" s="6">
+        <v>197</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-1752675464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>543347.068190002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>543.34706819000201</v>
+      </c>
+      <c r="E6" s="6">
+        <v>158</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-1758573476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>589594.17825400096</v>
+      </c>
+      <c r="D7" s="5">
+        <v>589.59417825400101</v>
+      </c>
+      <c r="E7" s="6">
+        <v>69</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-2119034832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2171</v>
+      </c>
+      <c r="D8" s="5">
+        <v>21.71</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-52715074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>5087</v>
-      </c>
-      <c r="D3">
-        <v>50.87</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>-222061049</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>3317</v>
-      </c>
-      <c r="D4">
-        <v>33.17</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>-29109438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C9" s="4">
+        <v>229344.293631999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>229.34429363199899</v>
+      </c>
+      <c r="E9" s="6">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-676646212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>543935.49545599904</v>
-      </c>
-      <c r="D5">
-        <v>543.93549545599899</v>
-      </c>
-      <c r="E5">
-        <v>197</v>
-      </c>
-      <c r="F5">
-        <v>-1752675464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>543347.068190002</v>
-      </c>
-      <c r="D6">
-        <v>543.34706819000201</v>
-      </c>
-      <c r="E6">
-        <v>158</v>
-      </c>
-      <c r="F6">
-        <v>-1758573476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>589594.17825400096</v>
-      </c>
-      <c r="D7">
-        <v>589.59417825400101</v>
-      </c>
-      <c r="E7">
-        <v>69</v>
-      </c>
-      <c r="F7">
-        <v>-2119034832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2171</v>
-      </c>
-      <c r="D8">
-        <v>21.71</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>-52715074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>229344.293631999</v>
-      </c>
-      <c r="D9">
-        <v>229.34429363199899</v>
-      </c>
-      <c r="E9">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>-676646212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>207210.37701499899</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>207.21037701499901</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>23</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <f>--770513813</f>
         <v>770513813</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>208502</v>
+      </c>
+      <c r="D11" s="5">
+        <v>208.50200000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-765888575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2061</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20.61</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-57348147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>59747</v>
+      </c>
+      <c r="D13" s="5">
+        <v>59.747</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>-189932464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>56270</v>
+      </c>
+      <c r="D14" s="5">
+        <v>56.27</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-217061223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>55419</v>
+      </c>
+      <c r="D15" s="5">
+        <v>55.418999999999997</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-203745756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10">
+        <v>11292</v>
+      </c>
+      <c r="D18" s="10">
+        <v>112.92</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>-276528927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5456</v>
+      </c>
+      <c r="D19" s="9">
+        <v>54.56</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>-208386637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3420</v>
+      </c>
+      <c r="D20" s="11">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>-25778889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="11">
+        <v>585035.22911999503</v>
+      </c>
+      <c r="D21" s="11">
+        <v>585.03522911999505</v>
+      </c>
+      <c r="E21" s="12">
+        <v>190</v>
+      </c>
+      <c r="F21" s="8">
+        <v>-2142230859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11">
+        <v>599577.68758000596</v>
+      </c>
+      <c r="D22" s="11">
+        <v>599.577687580006</v>
+      </c>
+      <c r="E22" s="12">
+        <v>156</v>
+      </c>
+      <c r="F22" s="8">
+        <v>-2086817257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12">
+        <v>565216.29494600301</v>
+      </c>
+      <c r="D23" s="12">
+        <v>565.21629494600302</v>
+      </c>
+      <c r="E23" s="11">
+        <v>131</v>
+      </c>
+      <c r="F23" s="8">
+        <v>-1930099961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2052</v>
+      </c>
+      <c r="D24" s="12">
+        <v>20.52</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>-57348147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="11">
+        <v>244008.76675199799</v>
+      </c>
+      <c r="D25" s="11">
+        <v>244.008766751998</v>
+      </c>
+      <c r="E25" s="11">
+        <v>99</v>
+      </c>
+      <c r="F25" s="8">
+        <v>-895024706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="11">
+        <v>264062.425489999</v>
+      </c>
+      <c r="D26" s="11">
+        <v>264.06242548999899</v>
+      </c>
+      <c r="E26" s="12">
+        <v>18</v>
+      </c>
+      <c r="F26" s="8">
+        <v>-824299197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11">
+        <v>283827.987136001</v>
+      </c>
+      <c r="D27" s="11">
+        <v>283.82798713600101</v>
+      </c>
+      <c r="E27" s="11">
+        <v>96</v>
+      </c>
+      <c r="F27" s="8">
+        <v>-1025756637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>208502</v>
-      </c>
-      <c r="D11">
-        <v>208.50200000000001</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>-765888575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1368</v>
+      </c>
+      <c r="D28" s="12">
+        <v>13.68</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>-98290490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
-        <v>2061</v>
-      </c>
-      <c r="D12">
-        <v>20.61</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>-57348147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C29" s="12">
+        <v>51646.076095999997</v>
+      </c>
+      <c r="D29" s="12">
+        <v>51.646076096000002</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>-218738448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>59747</v>
-      </c>
-      <c r="D13">
-        <v>59.747</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>-189932464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>56270</v>
-      </c>
-      <c r="D14">
-        <v>56.27</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>-217061223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C30" s="12">
+        <v>50395</v>
+      </c>
+      <c r="D30" s="12">
+        <v>50.395000000000003</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>-222061049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
-        <v>55419</v>
-      </c>
-      <c r="D15">
-        <v>55.418999999999997</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>-203745756</v>
-      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="13">
+        <v>51356</v>
+      </c>
+      <c r="D31" s="13">
+        <v>51.356000000000002</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>-218738440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvir_\.vscode\OOP_2021\OOP--Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA2401-E4B7-49C0-9FDD-0705130923ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3E517A-CF21-4CE6-B347-B3782F7BB22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{487E91EC-D829-4C9E-B38E-072FDB64A6D7}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{487E91EC-D829-4C9E-B38E-072FDB64A6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -558,18 +558,18 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -609,7 +609,7 @@
         <v>-276528927</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -617,19 +617,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="8">
-        <v>5456</v>
+        <v>5501</v>
       </c>
       <c r="D3" s="9">
-        <v>54.56</v>
+        <v>55.01</v>
       </c>
       <c r="E3" s="10">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>-208386637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-203745756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
@@ -637,19 +637,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>3420</v>
+        <v>3237</v>
       </c>
       <c r="D4" s="2">
-        <v>34.200000000000003</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="E4" s="10">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>-25778889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-31522095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -657,19 +657,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="4">
-        <v>585035.22911999503</v>
+        <v>537954.69644799898</v>
       </c>
       <c r="D5" s="2">
-        <v>585.03522911999505</v>
+        <v>537.95469644799903</v>
       </c>
       <c r="E5" s="10">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F5" s="3">
-        <v>-2142230859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-1769287927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -677,19 +677,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>599577.68758000596</v>
+        <v>565810.262090003</v>
       </c>
       <c r="D6" s="2">
-        <v>599.577687580006</v>
+        <v>565.81026209000299</v>
       </c>
       <c r="E6" s="10">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F6" s="3">
-        <v>-2086817257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-1937540303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
@@ -697,19 +697,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>565216.29494600301</v>
+        <v>551014.30137800204</v>
       </c>
       <c r="D7" s="2">
-        <v>565.21629494600302</v>
+        <v>551.01430137800196</v>
       </c>
       <c r="E7" s="10">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3">
-        <v>-1930099961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-1980853952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
@@ -717,19 +717,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="4">
-        <v>2052</v>
+        <v>1866</v>
       </c>
       <c r="D8" s="2">
-        <v>20.52</v>
+        <v>18.66</v>
       </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>-57348147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-79868697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
@@ -737,19 +737,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="4">
-        <v>244008.76675199799</v>
+        <v>205472.646815999</v>
       </c>
       <c r="D9" s="2">
-        <v>244.008766751998</v>
+        <v>205.47264681599901</v>
       </c>
       <c r="E9" s="10">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3">
-        <v>-895024706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-759489668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
@@ -757,19 +757,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>264062.425489999</v>
+        <v>211039.18670999899</v>
       </c>
       <c r="D10" s="2">
-        <v>264.06242548999899</v>
+        <v>211.039186709999</v>
       </c>
       <c r="E10" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3">
-        <v>-824299197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-739814352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
@@ -777,19 +777,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>283827.987136001</v>
+        <v>219713.43522199901</v>
       </c>
       <c r="D11" s="2">
-        <v>283.82798713600101</v>
+        <v>219.71343522199899</v>
       </c>
       <c r="E11" s="10">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3">
-        <v>-1025756637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-711278326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
@@ -797,19 +797,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <v>1368</v>
+        <v>1275</v>
       </c>
       <c r="D12" s="2">
-        <v>13.68</v>
+        <v>12.75</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>-98290490</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-84843947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
@@ -817,19 +817,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="4">
-        <v>51646.076095999997</v>
+        <v>54190</v>
       </c>
       <c r="D13" s="2">
-        <v>51.646076096000002</v>
+        <v>54.19</v>
       </c>
       <c r="E13" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>-218738448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-208386637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -837,19 +837,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="4">
-        <v>50395</v>
+        <v>52492</v>
       </c>
       <c r="D14" s="2">
-        <v>50.395000000000003</v>
+        <v>52.491999999999997</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-222061049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-230874771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
@@ -857,19 +857,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="5">
-        <v>51356</v>
+        <v>52828</v>
       </c>
       <c r="D15" s="6">
-        <v>51.356000000000002</v>
+        <v>52.828000000000003</v>
       </c>
       <c r="E15" s="11">
         <v>0</v>
       </c>
       <c r="F15" s="12">
-        <v>-218738440</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+        <v>-230874771</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
